--- a/git-manual.xlsx
+++ b/git-manual.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>index,working tree都不会改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>列出index与HEAD commit不同的文件，index与working tree不同的文件，以及working tree中还未跟踪的文件（以简短的格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch &lt;branchname&gt; [&lt;start-point&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从当前HEAD commit或从&lt;start-point&gt;开始创建一个名为&lt;branchname&gt;的新分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout &lt;newbranch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到新的分支&lt;newbranch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin &lt;newbranch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本地新建的&lt;newbranch&gt;同步到远端的origin仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -504,9 +528,33 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/git-manual.xlsx
+++ b/git-manual.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>index,working tree都不会改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>列出index与HEAD commit不同的文件，index与working tree不同的文件，以及working tree中还未跟踪的文件（以简短的格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch &lt;branchname&gt; [&lt;start-point&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从当前HEAD commit或从&lt;start-point&gt;开始创建一个名为&lt;branchname&gt;的新分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout &lt;newbranch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到新的分支&lt;newbranch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本地新建的&lt;newbranch&gt;同步到远端的origin仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push &lt;remote-repo&gt; &lt;newbranch&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -504,9 +528,33 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/git-manual.xlsx
+++ b/git-manual.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>index,working tree都不会改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,11 +102,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git push origin &lt;newbranch&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将本地新建的&lt;newbranch&gt;同步到远端的origin仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push &lt;remote-repo&gt; &lt;newbranch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge origin/&lt;branchname&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将分支&lt;branchname&gt;与当前分支合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git cat-file -p [&lt;hash value&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看.git/objects/&lt;hash value前两位&gt;/路径下保存的对象文件的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -544,10 +560,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -556,6 +572,22 @@
       </c>
       <c r="B12" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/git-manual.xlsx
+++ b/git-manual.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>index,working tree都不会改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,22 @@
   </si>
   <si>
     <t>git push &lt;remote-repo&gt; &lt;newbranch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge origin/&lt;branchname&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将分支&lt;branchname&gt;与当前分支合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git cat-file -p [&lt;hash value&gt;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看.git/objects/&lt;hash value前两位&gt;/路径下保存的对象文件的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -556,6 +572,22 @@
       </c>
       <c r="B12" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/git-manual.xlsx
+++ b/git-manual.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>index,working tree都不会改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>查看.git/objects/&lt;hash value前两位&gt;/路径下保存的对象文件的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log -g --abbrev-commit --pretty=oneline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同git reflog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log master@{two.week.ago}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看master分支两周以前的提交记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log HEAD@{15.day.ago}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看HEAD所指向的分支15天以前的所有提交记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -588,6 +612,30 @@
       </c>
       <c r="B14" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/git-manual.xlsx
+++ b/git-manual.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>index,working tree都不会改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,22 @@
   </si>
   <si>
     <t>查看.git/objects/&lt;hash value前两位&gt;/路径下保存的对象文件的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较working tree与index的差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较index与HEAD commit的差异</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -588,6 +604,22 @@
       </c>
       <c r="B14" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/git-manual.xlsx
+++ b/git-manual.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>index,working tree都不会改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,22 @@
   </si>
   <si>
     <t>比较index与HEAD commit的差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached HEAD~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较index与HEAD~ commit的差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff HEAD~ HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出HEAD较之于HEAD~ commit的差异</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -620,6 +636,22 @@
       </c>
       <c r="B16" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/git-manual.xlsx
+++ b/git-manual.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="git-manual" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="excel_F11" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>index,working tree都不会改变</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,46 @@
   </si>
   <si>
     <t>输出HEAD较之于HEAD~ commit的差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中整行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift+Space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加整行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+Shift+'+'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+PageUp/Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push &lt;remote-repo&gt; :&lt;branch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将远端&lt;remote-repo&gt;仓库的&lt;branch&gt;删除，注意本地的还在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -d &lt;branch&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本地的&lt;branch&gt;分支删除，注意远端的还在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -600,74 +640,118 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
